--- a/public/modelos de arquivos/import_model.xlsx
+++ b/public/modelos de arquivos/import_model.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -28,43 +28,151 @@
     <t xml:space="preserve">genero</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria Candida Ananaz</t>
+    <t xml:space="preserve">Anderson Divany César Campina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carla Alexandra Jaime Figueiredo</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Claudio Pemba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigues Ananias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eurico Puto Chicoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tersa Raimundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulce Tchiteta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanessa Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfredo Viti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Kuambe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esmeralde Andrade</t>
+    <t xml:space="preserve">Carlos Alessandro Cabido Maio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cila Catarina Maia Caldeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Dandara De Souza Nóbrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiano Da Piedade Bernardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djanila Rossana Ucuahamba Norberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Sabas De Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaino Weza Faria De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issac Clever Afonso Camunguenjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janaína Zeneide Alexandre De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamila Fernanda Martins Rezende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemar Diogo Basson Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhamad Aly Rocha Umaralie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lidjane Walciria Alexandre De Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahara Da Conceição Cachapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayna Alexandrina Freitas Haikela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebeca Mbundo Dos Santos Isaías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanara Anayr Marques Serrão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella Stiviandra Pedro Da Costa Dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatjana Manuela André Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taynara Carolina Carvalho Da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Manuel Dias Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waldano Escórcio Pinto Bié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalgiza Benjamim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Ndengue Cassimbo Cale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Tchipala Jose Numbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florinda Panguela Tch. Capingal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Cafina Tchivela Pinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Joaquim Calussasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Kalungue Avelino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graça Emília S. Maurício</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humilde Joaquim António Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inacio Kapule Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Njepele Lobito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquina Francisca Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Malesso Januario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Ngueve Binde João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lúcia Nandjele C. Andrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mingiedi Sewolo Ndula Kakata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando Quessongo C. Tchipilica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrícia Bento José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Anselmo Augusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Tchilumbo Javela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosária Jamba Joaquim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rufino Mateus Epuca Saquete</t>
   </si>
 </sst>
 </file>
@@ -79,6 +187,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,15 +269,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -200,7 +309,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,7 +325,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,7 +341,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,7 +357,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,7 +365,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,6 +374,294 @@
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
